--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_2.xlsx
@@ -518,881 +518,881 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_0</t>
+          <t>model_20_2_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998960198572521</v>
+        <v>0.9998957877843295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993774370309167</v>
+        <v>0.9993269531709867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999987793365778</v>
+        <v>0.9997263509379131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971202986880426</v>
+        <v>0.9999408401815816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997512422067212</v>
+        <v>0.9998876798510383</v>
       </c>
       <c r="G2" t="n">
-        <v>9.706089905439995e-05</v>
+        <v>9.727752894081942e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005811352042832072</v>
+        <v>0.0006282596715425563</v>
       </c>
       <c r="I2" t="n">
-        <v>1.361859130016074e-06</v>
+        <v>9.126476515859077e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003262676647334659</v>
+        <v>5.616500192548052e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000163814761931741</v>
+        <v>7.371488354203566e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005721362946306363</v>
+        <v>0.0007674067669138886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009851948997756736</v>
+        <v>0.009862937135601109</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000191963340458</v>
+        <v>1.000192391782776</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01027136686293715</v>
+        <v>0.01028282278855814</v>
       </c>
       <c r="P2" t="n">
-        <v>92.48034390231531</v>
+        <v>92.475885083164</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.5787494224387</v>
+        <v>137.5742906032874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_1</t>
+          <t>model_20_2_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999036097919796</v>
+        <v>0.9999084718461192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993693968180422</v>
+        <v>0.9993260586423303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999978248177921</v>
+        <v>0.9997303709590999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9971057254617447</v>
+        <v>0.9999208775031172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997491799937065</v>
+        <v>0.9998742625126572</v>
       </c>
       <c r="G3" t="n">
-        <v>8.997602814597799e-05</v>
+        <v>8.543751402607266e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005886403900771337</v>
+        <v>0.0006290946747781197</v>
       </c>
       <c r="I3" t="n">
-        <v>2.426788331194604e-06</v>
+        <v>8.992404691622137e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003279187986521488</v>
+        <v>7.511712017668969e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001651727934916717</v>
+        <v>8.252058354645553e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005532442159994981</v>
+        <v>0.0007526267220374866</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009485569468723424</v>
+        <v>0.009243241532388551</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000177951153268</v>
+        <v>1.000168975053318</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009889389798842714</v>
+        <v>0.009636745460570082</v>
       </c>
       <c r="P3" t="n">
-        <v>92.6319345540922</v>
+        <v>92.73545055862496</v>
       </c>
       <c r="Q3" t="n">
-        <v>137.7303400742156</v>
+        <v>137.8338560787484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_2</t>
+          <t>model_20_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999100727239862</v>
+        <v>0.9998780460404199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99935890776231</v>
+        <v>0.9993228224381778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99999591699906</v>
+        <v>0.9997172043103615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9970924382830099</v>
+        <v>0.9999565114607024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997464208802742</v>
+        <v>0.9998966906688047</v>
       </c>
       <c r="G4" t="n">
-        <v>8.394316480765829e-05</v>
+        <v>0.0001138386681079369</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005984314631868068</v>
+        <v>0.0006321155293014885</v>
       </c>
       <c r="I4" t="n">
-        <v>4.555286909541042e-06</v>
+        <v>9.43152591348002e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003294242244956988</v>
+        <v>4.12870417571307e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001669897557026199</v>
+        <v>6.780115044596544e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005340995794861379</v>
+        <v>0.0007827806605986184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009162050251317021</v>
+        <v>0.01066952051912066</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000166019586487</v>
+        <v>1.000225145771533</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009552097698574217</v>
+        <v>0.01112374409657191</v>
       </c>
       <c r="P4" t="n">
-        <v>92.77074119511413</v>
+        <v>92.16145660787089</v>
       </c>
       <c r="Q4" t="n">
-        <v>137.8691467152375</v>
+        <v>137.2598621279943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_3</t>
+          <t>model_20_2_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999153570993807</v>
+        <v>0.9999172105558942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993470853124085</v>
+        <v>0.9993218593775791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999932114356948</v>
+        <v>0.9997296370923443</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9970864120279178</v>
+        <v>0.9998980956103423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997436106193618</v>
+        <v>0.9998575981706004</v>
       </c>
       <c r="G5" t="n">
-        <v>7.901043233413008e-05</v>
+        <v>7.728031203617621e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006094672012242567</v>
+        <v>0.0006330145040969059</v>
       </c>
       <c r="I5" t="n">
-        <v>7.573806268602635e-06</v>
+        <v>9.016879899611152e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003301069939786953</v>
+        <v>9.674573712951487e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000168840400123649</v>
+        <v>9.345726806281318e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005157137703586335</v>
+        <v>0.0007385969499347188</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008888781262587693</v>
+        <v>0.008790922137988495</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000156263816528</v>
+        <v>1.000152842050657</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00926719508324989</v>
+        <v>0.00916516989312019</v>
       </c>
       <c r="P5" t="n">
-        <v>92.89186131870665</v>
+        <v>92.93614266066592</v>
       </c>
       <c r="Q5" t="n">
-        <v>137.9902668388301</v>
+        <v>138.0345481807894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_4</t>
+          <t>model_20_2_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999920152878168</v>
+        <v>0.9999229687278285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993322023791551</v>
+        <v>0.9993155574201368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999887601720314</v>
+        <v>0.9997250015529608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9971285608269264</v>
+        <v>0.9998738066926368</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997434658087306</v>
+        <v>0.9998388524525326</v>
       </c>
       <c r="G6" t="n">
-        <v>7.453378334654049e-05</v>
+        <v>7.190531129002452e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006233597661309714</v>
+        <v>0.0006388971047452832</v>
       </c>
       <c r="I6" t="n">
-        <v>1.253995332429377e-05</v>
+        <v>9.171479886173637e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003253315715532093</v>
+        <v>0.0001198050896793791</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001689357624387515</v>
+        <v>0.0001057599442705577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004999009541234909</v>
+        <v>0.0007253361698393761</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008633295045725039</v>
+        <v>0.008479699952829964</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000147410071074</v>
+        <v>1.000142211579394</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009000832289206014</v>
+        <v>0.008840698335220724</v>
       </c>
       <c r="P6" t="n">
-        <v>93.00851613525077</v>
+        <v>93.08032085090124</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.1069216553742</v>
+        <v>138.1787263710247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_5</t>
+          <t>model_20_2_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999237003392344</v>
+        <v>0.9998536601056248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993188559457998</v>
+        <v>0.9993112947597137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999842981504056</v>
+        <v>0.9997023664959708</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9971463003137843</v>
+        <v>0.9999659578687554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997412120954522</v>
+        <v>0.9998997530561869</v>
       </c>
       <c r="G7" t="n">
-        <v>7.122238415667808e-05</v>
+        <v>0.0001366018678203134</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006358180758274114</v>
+        <v>0.0006428761111411072</v>
       </c>
       <c r="I7" t="n">
-        <v>1.751810272981828e-05</v>
+        <v>9.926382221594546e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003233217030551555</v>
+        <v>3.231883426983512e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001704199028924869</v>
+        <v>6.57913282428903e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004836898949304432</v>
+        <v>0.0008004043567083439</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008439335528149008</v>
+        <v>0.0116876801727423</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000140860912183</v>
+        <v>1.000270165958846</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008798615513415219</v>
+        <v>0.01218524891452925</v>
       </c>
       <c r="P7" t="n">
-        <v>93.0994068094634</v>
+        <v>91.79687987454619</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.1978123295868</v>
+        <v>136.8952853946696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_6</t>
+          <t>model_20_2_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999926210365347</v>
+        <v>0.9999264291404811</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993063267728253</v>
+        <v>0.9993079568663435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99997958214561</v>
+        <v>0.9997172640581643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9971520940182099</v>
+        <v>0.9998487086611384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997377156099286</v>
+        <v>0.9998187333467948</v>
       </c>
       <c r="G8" t="n">
-        <v>6.887938495796473e-05</v>
+        <v>6.86751679733608e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006475135088320837</v>
+        <v>0.0006459918880856075</v>
       </c>
       <c r="I8" t="n">
-        <v>2.277961386493607e-05</v>
+        <v>9.429533263059174e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003226652813612526</v>
+        <v>0.0001436325966785199</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001727224476130944</v>
+        <v>0.0001189639646545558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004692560812491436</v>
+        <v>0.0007131282780395089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008299360515001426</v>
+        <v>0.008287048206289185</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000136227017821</v>
+        <v>1.000135823125265</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008652681474169723</v>
+        <v>0.008639845004985609</v>
       </c>
       <c r="P8" t="n">
-        <v>93.16630725413272</v>
+        <v>93.17224576013754</v>
       </c>
       <c r="Q8" t="n">
-        <v>138.2647127742561</v>
+        <v>138.2706512802609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_7</t>
+          <t>model_20_2_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999274120194344</v>
+        <v>0.9999281500172551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992965031290676</v>
+        <v>0.9992995831849651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999753907943525</v>
+        <v>0.9997073315295556</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9971151648040029</v>
+        <v>0.999823509522891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997309883519263</v>
+        <v>0.9997979820360392</v>
       </c>
       <c r="G9" t="n">
-        <v>6.775769361392542e-05</v>
+        <v>6.706880504267483e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006566834490716559</v>
+        <v>0.0006538083520901533</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74557841125444e-05</v>
+        <v>9.760793265919342e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003268493293490611</v>
+        <v>0.0001675560921526076</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001771525567308028</v>
+        <v>0.0001325828965188524</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00045710929685801</v>
+        <v>0.0007079179959456939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008231506157072679</v>
+        <v>0.008189554630300407</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000134008579506</v>
+        <v>1.000132646121991</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008581938415746063</v>
+        <v>0.008538200925627465</v>
       </c>
       <c r="P9" t="n">
-        <v>93.19914509154931</v>
+        <v>93.21958304916195</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.2975506116727</v>
+        <v>138.3179885692854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_8</t>
+          <t>model_20_2_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999283618273971</v>
+        <v>0.9999285829385128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992853025105756</v>
+        <v>0.9992907728943604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999700489884419</v>
+        <v>0.9996961045347009</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9971018483155594</v>
+        <v>0.9997985572621544</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997253178185028</v>
+        <v>0.9997770830767058</v>
       </c>
       <c r="G10" t="n">
-        <v>6.687108957243359e-05</v>
+        <v>6.666469205157732e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006671387347836465</v>
+        <v>0.000662032371642599</v>
       </c>
       <c r="I10" t="n">
-        <v>3.34154835824159e-05</v>
+        <v>0.0001013522504399183</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003283580759572177</v>
+        <v>0.0001912452076669143</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001808867797698168</v>
+        <v>0.0001462987290534163</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004491906016523265</v>
+        <v>0.0007039815573306984</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008177474522885021</v>
+        <v>0.008164844888396675</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000132255087882</v>
+        <v>1.000131846882746</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008525606543030135</v>
+        <v>0.008512439238854674</v>
       </c>
       <c r="P10" t="n">
-        <v>93.22548765628198</v>
+        <v>93.23167019949869</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.3238931764054</v>
+        <v>138.3300757196221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_9</t>
+          <t>model_20_2_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999289946499978</v>
+        <v>0.9998209966462516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9992750296463115</v>
+        <v>0.9992882499347586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999651571081997</v>
+        <v>0.9996853386639907</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9970901159586192</v>
+        <v>0.9999668525274814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997201583418398</v>
+        <v>0.9998960736093737</v>
       </c>
       <c r="G11" t="n">
-        <v>6.628037745240465e-05</v>
+        <v>0.0001670917733850683</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006767280026475397</v>
+        <v>0.0006643874436857665</v>
       </c>
       <c r="I11" t="n">
-        <v>3.887321390333959e-05</v>
+        <v>0.0001049427785952436</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003296873418379467</v>
+        <v>3.146946538381093e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001842844559998443</v>
+        <v>6.820612198952726e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004425300963341916</v>
+        <v>0.0008213133359177575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008141276156254906</v>
+        <v>0.01292639831449845</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000131086800004</v>
+        <v>1.000330467729997</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008487867136991628</v>
+        <v>0.01347670185208001</v>
       </c>
       <c r="P11" t="n">
-        <v>93.24323334121225</v>
+        <v>91.39393471052409</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.3416388613357</v>
+        <v>136.4923402306475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_10</t>
+          <t>model_20_2_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999291845938202</v>
+        <v>0.9999280391142545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9992653689173808</v>
+        <v>0.9992819046279502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999601550656965</v>
+        <v>0.9996838451277774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9970738684814249</v>
+        <v>0.9997741804802687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997145298277246</v>
+        <v>0.9997563366853415</v>
       </c>
       <c r="G12" t="n">
-        <v>6.61030732317441e-05</v>
+        <v>6.717232812558536e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006857458690473599</v>
+        <v>0.0006703105090646948</v>
       </c>
       <c r="I12" t="n">
-        <v>4.445384909551562e-05</v>
+        <v>0.0001054408882204683</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003315281669332438</v>
+        <v>0.000214387976494633</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001879910080143797</v>
+        <v>0.0001599144323575507</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004365091536188648</v>
+        <v>0.0007004724969668374</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008130379648684563</v>
+        <v>0.008195872627462275</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000130736134486</v>
+        <v>1.000132850865992</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008476506742535134</v>
+        <v>0.00854478789300857</v>
       </c>
       <c r="P12" t="n">
-        <v>93.24859063703011</v>
+        <v>93.21649835817375</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.3469961571535</v>
+        <v>138.3149038782972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_11</t>
+          <t>model_20_2_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999290649524429</v>
+        <v>0.9999268046197554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992566038230605</v>
+        <v>0.9992731073650403</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999553248205815</v>
+        <v>0.9996711398745536</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9970541645687387</v>
+        <v>0.9997507003779638</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997087431601299</v>
+        <v>0.9997361271090752</v>
       </c>
       <c r="G13" t="n">
-        <v>6.621475320584318e-05</v>
+        <v>6.832467455246242e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000693927699852208</v>
+        <v>0.0006785223678358489</v>
       </c>
       <c r="I13" t="n">
-        <v>4.984281487478447e-05</v>
+        <v>0.0001096782203088922</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003337606031763829</v>
+        <v>0.0002366794578821505</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001918017090255837</v>
+        <v>0.0001731778278806849</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004315849843064015</v>
+        <v>0.0006973328219102626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008137244816634385</v>
+        <v>0.008265874094883276</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000130957010875</v>
+        <v>1.000135129932759</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008483664174897439</v>
+        <v>0.008617769467820698</v>
       </c>
       <c r="P13" t="n">
-        <v>93.24521452351236</v>
+        <v>93.18247917877852</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.3436200436358</v>
+        <v>138.2808846989019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_12</t>
+          <t>model_20_2_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.99992881435277</v>
+        <v>0.9999251070735347</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992489562351955</v>
+        <v>0.9992645528533356</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999511636586934</v>
+        <v>0.9996583504247512</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9970321994467208</v>
+        <v>0.9997283728135858</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997033287481731</v>
+        <v>0.9997167266751862</v>
       </c>
       <c r="G14" t="n">
-        <v>6.644867700036642e-05</v>
+        <v>6.990925943591406e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007010663874338351</v>
+        <v>0.0006865076290125325</v>
       </c>
       <c r="I14" t="n">
-        <v>5.44853037097127e-05</v>
+        <v>0.000113943632818745</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003362492324785323</v>
+        <v>0.0002578767456664089</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001953672680941225</v>
+        <v>0.0001859101892425769</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000426883920530982</v>
+        <v>0.0006943503177130558</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008151605792748226</v>
+        <v>0.008361175720908757</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000131419656425</v>
+        <v>1.000138263864244</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008498636527495763</v>
+        <v>0.008717128281367646</v>
       </c>
       <c r="P14" t="n">
-        <v>93.2381613654085</v>
+        <v>93.13662490120628</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.3365668855319</v>
+        <v>138.2350304213297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_13</t>
+          <t>model_20_2_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999284367582917</v>
+        <v>0.9999230765981506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992412116403101</v>
+        <v>0.9992563249967443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999466269043272</v>
+        <v>0.9996456485044929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9970168475151265</v>
+        <v>0.9997071506833154</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996981650692244</v>
+        <v>0.9996981495697265</v>
       </c>
       <c r="G15" t="n">
-        <v>6.680114487149238e-05</v>
+        <v>7.180461907934891e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007082956268109947</v>
+        <v>0.0006941879719792993</v>
       </c>
       <c r="I15" t="n">
-        <v>5.954683028775771e-05</v>
+        <v>0.0001181798533290275</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003379885930329044</v>
+        <v>0.0002780245591547198</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000198767711660331</v>
+        <v>0.0001981022062418736</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004228474850091813</v>
+        <v>0.0006917215274229581</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008173196735151576</v>
+        <v>0.008473760622023076</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000132116753923</v>
+        <v>1.000142012434184</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008521146641016638</v>
+        <v>0.008834506154805275</v>
       </c>
       <c r="P15" t="n">
-        <v>93.22758067754749</v>
+        <v>93.08312350279577</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.3259861976709</v>
+        <v>138.1815290229192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_14</t>
+          <t>model_20_2_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999280324840375</v>
+        <v>0.9999208521351265</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9992340217258732</v>
+        <v>0.99924851383943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999423662311898</v>
+        <v>0.9996332020644497</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9970049215439326</v>
+        <v>0.9996872060263069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996935299713604</v>
+        <v>0.9996805613598099</v>
       </c>
       <c r="G16" t="n">
-        <v>6.717851714213662e-05</v>
+        <v>7.388105766971623e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007150070963370779</v>
+        <v>0.0007014793444620108</v>
       </c>
       <c r="I16" t="n">
-        <v>6.430034096618776e-05</v>
+        <v>0.0001223308685707135</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003393397952409145</v>
+        <v>0.0002969595682408626</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002018200681035512</v>
+        <v>0.0002096452184057881</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004192104981906876</v>
+        <v>0.0006894247168754651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008196250187868634</v>
+        <v>0.008595409104267012</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000132863106392</v>
+        <v>1.000146119135151</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008545181526943087</v>
+        <v>0.00896133346478541</v>
       </c>
       <c r="P16" t="n">
-        <v>93.21631409386062</v>
+        <v>93.02610817337299</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.314719613984</v>
+        <v>138.1245136934964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_15</t>
+          <t>model_20_2_0</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999274596017205</v>
+        <v>0.9997780457803926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9992277052036871</v>
+        <v>0.9992469330462574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999384712655844</v>
+        <v>0.9996787589281491</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9969870359408759</v>
+        <v>0.9999564438546898</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996886919888446</v>
+        <v>0.9998868731774643</v>
       </c>
       <c r="G17" t="n">
-        <v>6.771327763845124e-05</v>
+        <v>0.0002071845213392387</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007209032925345282</v>
+        <v>0.0007029549454998382</v>
       </c>
       <c r="I17" t="n">
-        <v>6.864584225211434e-05</v>
+        <v>0.0001071371878938019</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003413662185777545</v>
+        <v>4.135122538595347e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002050060304149344</v>
+        <v>7.424429744607596e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004161667630451664</v>
+        <v>0.0008610805576402312</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008228807789616382</v>
+        <v>0.01439390570134592</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000133920735285</v>
+        <v>1.000409761636198</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008579125173200763</v>
+        <v>0.01500668406654466</v>
       </c>
       <c r="P17" t="n">
-        <v>93.20045654526238</v>
+        <v>90.96380150866126</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.2988620653858</v>
+        <v>136.0622070287847</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999270000977799</v>
+        <v>0.99991851441905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9992217322744685</v>
+        <v>0.999241148217897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999348942133605</v>
+        <v>0.9996211366410159</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9969767257432078</v>
+        <v>0.9996684937096021</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9996847749754089</v>
+        <v>0.9996639612984046</v>
       </c>
       <c r="G18" t="n">
-        <v>6.814220439705951e-05</v>
+        <v>7.606321301324815e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007264787597787792</v>
+        <v>0.0007083548288497209</v>
       </c>
       <c r="I18" t="n">
-        <v>7.263665670701819e-05</v>
+        <v>0.0001263548108704895</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003425343550445824</v>
+        <v>0.0003147246211408255</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002075855058758003</v>
+        <v>0.0002205397160056575</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004130859344537106</v>
+        <v>0.000687452542353172</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00825482915614003</v>
+        <v>0.008721422648470154</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000134769050252</v>
+        <v>1.000150434918677</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008606254323168977</v>
+        <v>0.009092711666449276</v>
       </c>
       <c r="P18" t="n">
-        <v>93.18782759051183</v>
+        <v>92.96789162643223</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.2862331106353</v>
+        <v>138.0662971465557</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999264112990319</v>
+        <v>0.9999161519777687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9992160699943179</v>
+        <v>0.9992342109762157</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999311994530463</v>
+        <v>0.9996097064422806</v>
       </c>
       <c r="E19" t="n">
-        <v>0.99696491597744</v>
+        <v>0.9996510650410203</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999680629253512</v>
+        <v>0.999648451086711</v>
       </c>
       <c r="G19" t="n">
-        <v>6.869182218309271e-05</v>
+        <v>7.826844825012417e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007317642497539714</v>
+        <v>0.0007148304394495148</v>
       </c>
       <c r="I19" t="n">
-        <v>7.675879469819283e-05</v>
+        <v>0.0001301668992267965</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003438723912784625</v>
+        <v>0.00033127100736414</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002103155929883277</v>
+        <v>0.0002307189532954682</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004106687703698453</v>
+        <v>0.0006857152922364731</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008288052979023042</v>
+        <v>0.008846945701773249</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000135856063326</v>
+        <v>1.000154796348735</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008640892552974913</v>
+        <v>0.009223578496000025</v>
       </c>
       <c r="P19" t="n">
-        <v>93.17176080491519</v>
+        <v>92.91073199189231</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.2701663250386</v>
+        <v>138.0091375120157</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999258476984374</v>
+        <v>0.9999138106548278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9992110360038097</v>
+        <v>0.9992277582282872</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999279377045869</v>
+        <v>0.9995988800517833</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9969536777244572</v>
+        <v>0.9996348917681342</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996768994958223</v>
+        <v>0.999634002307579</v>
       </c>
       <c r="G20" t="n">
-        <v>6.921791859884472e-05</v>
+        <v>8.045397044327557e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007364632589267286</v>
+        <v>0.0007208537963977809</v>
       </c>
       <c r="I20" t="n">
-        <v>8.039783379661321e-05</v>
+        <v>0.0001337776113509968</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003451456756087299</v>
+        <v>0.0003466255491303925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002127717547026716</v>
+        <v>0.0002402015802406947</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004084420500647407</v>
+        <v>0.0006841521323006807</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008319730680667778</v>
+        <v>0.00896961372876645</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000136896556731</v>
+        <v>1.000159118791087</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008673918839960547</v>
+        <v>0.009351468754860148</v>
       </c>
       <c r="P20" t="n">
-        <v>93.15650157913996</v>
+        <v>92.85565066562597</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.2549070992634</v>
+        <v>137.9540561857494</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999253405428595</v>
+        <v>0.9999115349028906</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9992065895241442</v>
+        <v>0.9992217532914492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999251085108368</v>
+        <v>0.9995886887639833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9969436028183958</v>
+        <v>0.999619959078739</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999673636227109</v>
+        <v>0.9996206121990155</v>
       </c>
       <c r="G21" t="n">
-        <v>6.969132606918444e-05</v>
+        <v>8.257828498265273e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007406138525165615</v>
+        <v>0.0007264591413497592</v>
       </c>
       <c r="I21" t="n">
-        <v>8.355428402604556e-05</v>
+        <v>0.0001371765102203384</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003462871537403055</v>
+        <v>0.0003608023088138133</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002149207188831755</v>
+        <v>0.0002489894095170759</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000406233582671696</v>
+        <v>0.0006827462767139577</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008348133088851928</v>
+        <v>0.009087259486921937</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000137832843952</v>
+        <v>1.000163320179279</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008703530397462187</v>
+        <v>0.009474122936500606</v>
       </c>
       <c r="P21" t="n">
-        <v>93.14286938916406</v>
+        <v>92.80352761134485</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.2412749092875</v>
+        <v>137.9019331314683</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999248238041849</v>
+        <v>0.9999093467370267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9992022910447773</v>
+        <v>0.9992162124520447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999222146673922</v>
+        <v>0.9995792108628674</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9969361154487422</v>
+        <v>0.9996061997908497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996705407847907</v>
+        <v>0.9996082520599848</v>
       </c>
       <c r="G22" t="n">
-        <v>7.017367893972643e-05</v>
+        <v>8.462084176726333e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007446262943241024</v>
+        <v>0.0007316312717191662</v>
       </c>
       <c r="I22" t="n">
-        <v>8.678286206356689e-05</v>
+        <v>0.0001403374873234608</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003471354662377681</v>
+        <v>0.0003738650674809742</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002169591641506675</v>
+        <v>0.0002571012774022175</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004044463794891666</v>
+        <v>0.0006815021323095384</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008376973137101874</v>
+        <v>0.009198958732773146</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000138786823043</v>
+        <v>1.000167359870105</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008733598226273264</v>
+        <v>0.009590577450497018</v>
       </c>
       <c r="P22" t="n">
-        <v>93.12907452224016</v>
+        <v>92.75465993021172</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.2274800423636</v>
+        <v>137.8530654503352</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999243233805135</v>
+        <v>0.9999072673493231</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991985441088868</v>
+        <v>0.9992110912705483</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999197013323329</v>
+        <v>0.9995704316232134</v>
       </c>
       <c r="E23" t="n">
-        <v>0.996927391440404</v>
+        <v>0.9995935571410715</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996676612868335</v>
+        <v>0.9995968770927068</v>
       </c>
       <c r="G23" t="n">
-        <v>7.06408024710024e-05</v>
+        <v>8.656185891391485e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007481238945064867</v>
+        <v>0.0007364116698521297</v>
       </c>
       <c r="I23" t="n">
-        <v>8.958691782124479e-05</v>
+        <v>0.0001432654536726974</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003481238888272196</v>
+        <v>0.0003858677150232066</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002188554033242322</v>
+        <v>0.000264566584347952</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004027639862058592</v>
+        <v>0.0006803790222387637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008404808294720493</v>
+        <v>0.009303862580343438</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000139710682129</v>
+        <v>1.000171198739711</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008762618384178427</v>
+        <v>0.009699947272039277</v>
       </c>
       <c r="P23" t="n">
-        <v>93.11580528344913</v>
+        <v>92.70930253531736</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.2142108035725</v>
+        <v>137.8077080554408</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999238304120089</v>
+        <v>0.9999052977562091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991949397844428</v>
+        <v>0.9992063831002417</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999172142484574</v>
+        <v>0.9995622440275842</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9969200752192142</v>
+        <v>0.9995819417847495</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996649251296653</v>
+        <v>0.9995863954835478</v>
       </c>
       <c r="G24" t="n">
-        <v>7.11009669311854e-05</v>
+        <v>8.840038763073007e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007514883731633648</v>
+        <v>0.0007408065401686036</v>
       </c>
       <c r="I24" t="n">
-        <v>9.236168588709119e-05</v>
+        <v>0.0001459961006795515</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003489528103519382</v>
+        <v>0.0003968950732475833</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002206572481195147</v>
+        <v>0.0002714455869635674</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004013057866044087</v>
+        <v>0.0006794037554783172</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008432138929784387</v>
+        <v>0.009402148032802402</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00014062077783</v>
+        <v>1.000174834911614</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008791112540959205</v>
+        <v>0.009802416939688354</v>
       </c>
       <c r="P24" t="n">
-        <v>93.10281924330565</v>
+        <v>92.66726840673456</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.2012247634291</v>
+        <v>137.765673926858</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999233531440918</v>
+        <v>0.9999034449486881</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991919555938564</v>
+        <v>0.9992020628140182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999151944418015</v>
+        <v>0.9995546957577729</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9969103314496495</v>
+        <v>0.9995712740841438</v>
       </c>
       <c r="F25" t="n">
-        <v>0.99966237597097</v>
+        <v>0.9995767617467645</v>
       </c>
       <c r="G25" t="n">
-        <v>7.154647558222602e-05</v>
+        <v>9.012990212275088e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007542739840848998</v>
+        <v>0.0007448393377195981</v>
       </c>
       <c r="I25" t="n">
-        <v>9.461512617633213e-05</v>
+        <v>0.0001485135259775843</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003500567710052129</v>
+        <v>0.0004070227484344726</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002223359485907725</v>
+        <v>0.0002777681372060285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004000149217968253</v>
+        <v>0.0006785484462606822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008458514974995671</v>
+        <v>0.009493676954834248</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000141501887831</v>
+        <v>1.000178255479345</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008818611469021074</v>
+        <v>0.009897842437422085</v>
       </c>
       <c r="P25" t="n">
-        <v>93.09032662257016</v>
+        <v>92.62851714270586</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.1887321426936</v>
+        <v>137.7269226628293</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999229449839309</v>
+        <v>0.9999017114030465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999189133454251</v>
+        <v>0.9991981190239567</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999132883908237</v>
+        <v>0.9995477001937643</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9969039404644039</v>
+        <v>0.9995615244837914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996602115939847</v>
+        <v>0.9995679324962562</v>
       </c>
       <c r="G26" t="n">
-        <v>7.192747517627699e-05</v>
+        <v>9.174809088534134e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007569083275289452</v>
+        <v>0.000748520692629645</v>
       </c>
       <c r="I26" t="n">
-        <v>9.674165252196611e-05</v>
+        <v>0.0001508466182291254</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003507808640987532</v>
+        <v>0.0004162787998762084</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002237612583103596</v>
+        <v>0.0002835627090526669</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003987527507896004</v>
+        <v>0.0006778182522979143</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008481006731295348</v>
+        <v>0.00957852237484161</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000142255414282</v>
+        <v>1.000181455871299</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008842060745950783</v>
+        <v>0.009986299902613393</v>
       </c>
       <c r="P26" t="n">
-        <v>93.07970447164662</v>
+        <v>92.59292775807054</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.17810999177</v>
+        <v>137.691333278194</v>
       </c>
     </row>
   </sheetData>
